--- a/test-project/dependency_analysis_report.xlsx
+++ b/test-project/dependency_analysis_report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>依赖名称</t>
   </si>
@@ -120,10 +120,10 @@
     <t>react-dom</t>
   </si>
   <si>
-    <t>sdk</t>
-  </si>
-  <si>
-    <t>flutter</t>
+    <t>flutter_lints</t>
+  </si>
+  <si>
+    <t>^3.0.0</t>
   </si>
   <si>
     <t>Flutter</t>
@@ -135,12 +135,6 @@
     <t>pubspec.yaml</t>
   </si>
   <si>
-    <t>flutter_lints</t>
-  </si>
-  <si>
-    <t>^3.0.0</t>
-  </si>
-  <si>
     <t>D:\ohProject\project-scanner\test-project\testest\build.gradle</t>
   </si>
   <si>
@@ -154,6 +148,18 @@
   </si>
   <si>
     <t>CMakeLists.txt</t>
+  </si>
+  <si>
+    <t>test.so</t>
+  </si>
+  <si>
+    <t>D:\ohProject\project-scanner\test-project\lib\test.so</t>
+  </si>
+  <si>
+    <t>test2.so</t>
+  </si>
+  <si>
+    <t>D:\ohProject\project-scanner\test-project\lib\test2\test2.so</t>
   </si>
   <si>
     <t>依赖类型统计</t>
@@ -196,12 +202,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="11"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="11"/>
       </patternFill>
     </fill>
     <fill>
@@ -558,68 +564,68 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="4">
+      <c r="A16" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="B16" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s" s="4">
-        <v>39</v>
+      <c r="E16" t="s" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s" s="5">
         <v>7</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s" s="5">
-        <v>9</v>
+      <c r="A18" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s" s="3">
         <v>24</v>
@@ -627,16 +633,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s" s="3">
         <v>24</v>
@@ -644,16 +650,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s" s="3">
         <v>24</v>
@@ -661,16 +667,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s" s="3">
         <v>24</v>
@@ -678,16 +684,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s" s="3">
         <v>24</v>
@@ -695,75 +701,75 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D24" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="E24" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="E26" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="E25" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="E27" t="s" s="6">
         <v>44</v>
-      </c>
-      <c r="E26" t="s" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s" s="4">
-        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s" s="6">
         <v>13</v>
@@ -772,15 +778,15 @@
         <v>14</v>
       </c>
       <c r="D28" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s" s="6">
         <v>13</v>
@@ -789,15 +795,15 @@
         <v>14</v>
       </c>
       <c r="D29" t="s" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s" s="6">
         <v>13</v>
@@ -806,15 +812,15 @@
         <v>14</v>
       </c>
       <c r="D30" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s" s="6">
         <v>45</v>
-      </c>
-      <c r="E30" t="s" s="6">
-        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s" s="6">
         <v>13</v>
@@ -823,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="D31" t="s" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,7 +854,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -856,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -872,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +899,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -901,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -930,7 +936,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -938,10 +944,26 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B17" t="n" s="0">
-        <v>4.0</v>
+      <c r="B18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-project/dependency_analysis_report.xlsx
+++ b/test-project/dependency_analysis_report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t>依赖名称</t>
   </si>
@@ -120,19 +120,25 @@
     <t>react-dom</t>
   </si>
   <si>
+    <t>sdk</t>
+  </si>
+  <si>
+    <t>flutter</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>D:\ohProject\project-scanner\test-project\project_files\pubspec.yaml</t>
+  </si>
+  <si>
+    <t>pubspec.yaml</t>
+  </si>
+  <si>
     <t>flutter_lints</t>
   </si>
   <si>
     <t>^3.0.0</t>
-  </si>
-  <si>
-    <t>Flutter</t>
-  </si>
-  <si>
-    <t>D:\ohProject\project-scanner\test-project\project_files\pubspec.yaml</t>
-  </si>
-  <si>
-    <t>pubspec.yaml</t>
   </si>
   <si>
     <t>D:\ohProject\project-scanner\test-project\testest\build.gradle</t>
@@ -295,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -564,68 +570,68 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s" s="5">
+      <c r="A16" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="E16" t="s" s="5">
-        <v>9</v>
+      <c r="B16" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s" s="5">
         <v>7</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>24</v>
+      <c r="A18" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s" s="3">
         <v>24</v>
@@ -633,16 +639,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s" s="3">
         <v>24</v>
@@ -650,16 +656,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s" s="3">
         <v>24</v>
@@ -667,16 +673,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s" s="3">
         <v>24</v>
@@ -684,16 +690,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s" s="3">
         <v>22</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s" s="3">
         <v>24</v>
@@ -701,75 +707,75 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B25" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C25" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="E24" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s" s="4">
+      <c r="C27" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="D25" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s" s="4">
+      <c r="D27" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s" s="4">
         <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s" s="6">
-        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s" s="6">
         <v>13</v>
@@ -778,15 +784,15 @@
         <v>14</v>
       </c>
       <c r="D28" t="s" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s" s="6">
         <v>13</v>
@@ -795,15 +801,15 @@
         <v>14</v>
       </c>
       <c r="D29" t="s" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="6">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s" s="6">
         <v>13</v>
@@ -812,15 +818,15 @@
         <v>14</v>
       </c>
       <c r="D30" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s" s="6">
         <v>46</v>
-      </c>
-      <c r="E30" t="s" s="6">
-        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="6">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s" s="6">
         <v>13</v>
@@ -829,10 +835,44 @@
         <v>14</v>
       </c>
       <c r="D31" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="E31" t="s" s="6">
+      <c r="E32" t="s" s="6">
         <v>47</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s" s="6">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +894,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -886,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -899,7 +939,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -907,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -936,7 +976,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -944,7 +984,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>1.0</v>
@@ -955,12 +995,12 @@
         <v>39</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>1.0</v>
